--- a/biology/Botanique/Abbaye_de_Combelongue/Abbaye_de_Combelongue.xlsx
+++ b/biology/Botanique/Abbaye_de_Combelongue/Abbaye_de_Combelongue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbaye de Combelongue, également appelée abbaye Saint-Laurent de Combelongue est une abbaye de l'ordre de Prémontré, située en France sur la commune de Rimont dans le département de l'Ariège (ancien diocèse de Couserans, aujourd'hui diocèse de Pamiers).
-L'abbaye fait l’objet d’une inscription au titre des monuments historiques depuis le 9 juillet 2007[2].
+L'abbaye fait l’objet d’une inscription au titre des monuments historiques depuis le 9 juillet 2007.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye de Combelongue, la seule dans le diocèse de Couserans[3], est fondée en 1138 par Arnauld d'Austria, comte de Pallars pour l’un de ses fils Antoine, qui en devient le premier abbé. En 1154, l'abbaye reçoit le roi Louis VII, en route vers Saint-Jacques-de-Compostelle. Riche et prospère jusqu’au XIVe siècle, elle compte alors une centaine de religieux.
-En 1207, l’abbé de Combelongue Navarrus d'Acqs, également évêque de Couserans, est légat du pape Innocent III[3]. C'est à ce titre qu'il prend part aux querelles religieuses entre catholiques et cathares à Montréal (Aude) et au colloque de Pamiers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye de Combelongue, la seule dans le diocèse de Couserans, est fondée en 1138 par Arnauld d'Austria, comte de Pallars pour l’un de ses fils Antoine, qui en devient le premier abbé. En 1154, l'abbaye reçoit le roi Louis VII, en route vers Saint-Jacques-de-Compostelle. Riche et prospère jusqu’au XIVe siècle, elle compte alors une centaine de religieux.
+En 1207, l’abbé de Combelongue Navarrus d'Acqs, également évêque de Couserans, est légat du pape Innocent III. C'est à ce titre qu'il prend part aux querelles religieuses entre catholiques et cathares à Montréal (Aude) et au colloque de Pamiers.
 À partir de 1446, l'abbaye commence à décliner. Affectée par l'épidémie de peste noire (1353-1355), elle est endommagée pendant la guerre de Cent Ans et les guerres de Religion. En 1568, l'abbaye de Combelongue est dévastée par les protestants, venus de la région de Tarascon.
 L'abbaye se maintient jusqu’à la Révolution sous le régime de la commende. En 1789, l’abbaye est pillée et incendiée. Arnaud de Jonquet, dernier abbé de l’abbaye de Combelongue de 1741 à 1789 émigre en Espagne.
 En 1791, l'abbaye est sécularisée et plus tard vendue comme bien national.
@@ -548,7 +562,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Construite entièrement en briques roses — situation inhabituelle dans cette région où la pierre abonde —, cette abbaye romane est l'un des rares témoins de l'influence mudéjare dans la région.
 </t>
